--- a/_RESULTS/Error_budget/error_budget_area1.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>search_radius</t>
-  </si>
-  <si>
-    <t>#PCs</t>
-  </si>
-  <si>
-    <t>MSPE</t>
-  </si>
-  <si>
-    <t>Nugget</t>
-  </si>
-  <si>
-    <t>Non-expl var of model</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,35 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -385,211 +353,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>search_radius</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>#PCs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MSPE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nugget</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Non-expl var of model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="n">
+        <v>4.127440263128507</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.715440263128508</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" t="n">
+        <v>3.954933825732676</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6739999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.280933825732677</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D4" t="n">
+        <v>3.805125538723093</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0247</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.780425538723093</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100000</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>4.376092088359577</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>4.376092088359577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>100000</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4.335587911980846</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>4.335587911980846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>100000</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4.318423610936945</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>4.318423610936945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>100000</v>
-      </c>
-      <c r="C5">
+      <c r="D5" t="n">
+        <v>3.777443961175984</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.3142</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.463243961175984</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>4.436020471560188</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>4.436020471560188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>100000</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>4.503288070995744</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>4.503288070995744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="D6" t="n">
+        <v>3.7609845725706</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.4703</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.2906845725706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>100000</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>4.542428546263487</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>4.542428546263487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="D7" t="n">
+        <v>3.732355301143372</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.6163</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.116055301143372</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>100000</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>4.582537756232396</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>4.582537756232396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="D8" t="n">
+        <v>3.707652518224771</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.7472</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.960452518224771</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>100000</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>4.620849488432287</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>4.620849488432287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="D9" t="n">
+        <v>3.689097745326722</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.8732</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.815897745326722</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>100000</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>4.637283226568272</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>4.637283226568272</v>
+      <c r="D10" t="n">
+        <v>3.668675087201002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.9436</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.725075087201002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/_RESULTS/Error_budget/error_budget_area1.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1.xlsx
@@ -404,13 +404,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.127440263128507</v>
+        <v>4.127494786624378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.412</v>
+        <v>0.40788</v>
       </c>
       <c r="F2" t="n">
-        <v>3.715440263128508</v>
+        <v>3.719614786624378</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +424,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.954933825732676</v>
+        <v>3.955052113479161</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6739999999999999</v>
+        <v>0.66693</v>
       </c>
       <c r="F3" t="n">
-        <v>3.280933825732677</v>
+        <v>3.288122113479161</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.805125538723093</v>
+        <v>3.805243826469577</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0247</v>
+        <v>1.01763</v>
       </c>
       <c r="F4" t="n">
-        <v>2.780425538723093</v>
+        <v>2.787613826469577</v>
       </c>
     </row>
     <row r="5">
@@ -464,13 +464,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>3.777443961175984</v>
+        <v>3.777562248922468</v>
       </c>
       <c r="E5" t="n">
-        <v>1.3142</v>
+        <v>1.30713</v>
       </c>
       <c r="F5" t="n">
-        <v>2.463243961175984</v>
+        <v>2.470432248922468</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.7609845725706</v>
+        <v>3.761102860317084</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4703</v>
+        <v>1.46323</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2906845725706</v>
+        <v>2.297872860317085</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +504,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>3.732355301143372</v>
+        <v>3.732473588889856</v>
       </c>
       <c r="E7" t="n">
-        <v>1.6163</v>
+        <v>1.60923</v>
       </c>
       <c r="F7" t="n">
-        <v>2.116055301143372</v>
+        <v>2.123243588889856</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +524,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>3.707652518224771</v>
+        <v>3.707770631891534</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7472</v>
+        <v>1.74012</v>
       </c>
       <c r="F8" t="n">
-        <v>1.960452518224771</v>
+        <v>1.967650631891535</v>
       </c>
     </row>
     <row r="9">
@@ -544,13 +544,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>3.689097745326722</v>
+        <v>3.689215858993487</v>
       </c>
       <c r="E9" t="n">
-        <v>1.8732</v>
+        <v>1.86612</v>
       </c>
       <c r="F9" t="n">
-        <v>1.815897745326722</v>
+        <v>1.823095858993487</v>
       </c>
     </row>
     <row r="10">
@@ -564,13 +564,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>3.668675087201002</v>
+        <v>3.668793200867766</v>
       </c>
       <c r="E10" t="n">
-        <v>1.9436</v>
+        <v>1.93652</v>
       </c>
       <c r="F10" t="n">
-        <v>1.725075087201002</v>
+        <v>1.732273200867766</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area1.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,17 +379,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>VAR(OK)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MSPE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nugget</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Non-expl var of model</t>
+          <t>S_nugget</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(TOTAL)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(DATA)</t>
         </is>
       </c>
     </row>
@@ -404,13 +414,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.4484632270365142</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.127494786624378</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.40788</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.719614786624378</v>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +438,17 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.6807493768443182</v>
+      </c>
+      <c r="E3" t="n">
         <v>3.955052113479161</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.66693</v>
       </c>
-      <c r="F3" t="n">
-        <v>3.288122113479161</v>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +462,17 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0.7961422459408118</v>
+      </c>
+      <c r="E4" t="n">
         <v>3.805243826469577</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.01763</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.787613826469577</v>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
     <row r="5">
@@ -464,13 +486,17 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.8594156884633212</v>
+      </c>
+      <c r="E5" t="n">
         <v>3.777562248922468</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.30713</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.470432248922468</v>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +510,17 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>0.911674454066754</v>
+      </c>
+      <c r="E6" t="n">
         <v>3.761102860317084</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.46323</v>
       </c>
-      <c r="F6" t="n">
-        <v>2.297872860317085</v>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +534,17 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>0.9772351786965506</v>
+      </c>
+      <c r="E7" t="n">
         <v>3.732473588889856</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.60923</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.123243588889856</v>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +558,17 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>1.01950515645822</v>
+      </c>
+      <c r="E8" t="n">
         <v>3.707770631891534</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.74012</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.967650631891535</v>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
     <row r="9">
@@ -544,13 +582,17 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
+        <v>1.061164853590894</v>
+      </c>
+      <c r="E9" t="n">
         <v>3.689215858993487</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.86612</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.823095858993487</v>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
     <row r="10">
@@ -564,13 +606,89 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
+        <v>1.096672465688021</v>
+      </c>
+      <c r="E10" t="n">
         <v>3.668793200867766</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.93652</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.732273200867766</v>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>4.330044453585476</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.116709465578709</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.675206226899799</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.93652</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>4.330044453585476</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.123018162709762</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.676191201968257</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.93652</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>4.330044453585476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.125435157590476</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.677591989185273</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.93652</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>4.330044453585476</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area1.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1.xlsx
@@ -408,23 +408,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4484632270365142</v>
+        <v>0.2546468043688802</v>
       </c>
       <c r="E2" t="n">
-        <v>4.127494786624378</v>
+        <v>4.090477886565919</v>
       </c>
       <c r="F2" t="n">
-        <v>0.40788</v>
+        <v>1.045</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="3">
@@ -432,23 +432,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6807493768443182</v>
+        <v>0.4110409802702994</v>
       </c>
       <c r="E3" t="n">
-        <v>3.955052113479161</v>
+        <v>3.912426298598175</v>
       </c>
       <c r="F3" t="n">
-        <v>0.66693</v>
+        <v>1.6292</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="4">
@@ -456,23 +456,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7961422459408118</v>
+        <v>0.5355094759621808</v>
       </c>
       <c r="E4" t="n">
-        <v>3.805243826469577</v>
+        <v>3.754207723738251</v>
       </c>
       <c r="F4" t="n">
-        <v>1.01763</v>
+        <v>2.0564</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="5">
@@ -480,23 +480,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8594156884633212</v>
+        <v>0.56597042598376</v>
       </c>
       <c r="E5" t="n">
-        <v>3.777562248922468</v>
+        <v>3.725360916877521</v>
       </c>
       <c r="F5" t="n">
-        <v>1.30713</v>
+        <v>2.4922</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="6">
@@ -504,23 +504,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.911674454066754</v>
+        <v>0.5794681151118293</v>
       </c>
       <c r="E6" t="n">
-        <v>3.761102860317084</v>
+        <v>3.706315775055423</v>
       </c>
       <c r="F6" t="n">
-        <v>1.46323</v>
+        <v>2.7495</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="7">
@@ -528,23 +528,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9772351786965506</v>
+        <v>0.5872462595146157</v>
       </c>
       <c r="E7" t="n">
-        <v>3.732473588889856</v>
+        <v>3.69561847722617</v>
       </c>
       <c r="F7" t="n">
-        <v>1.60923</v>
+        <v>2.9962</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="8">
@@ -552,23 +552,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.01950515645822</v>
+        <v>0.6063895716669161</v>
       </c>
       <c r="E8" t="n">
-        <v>3.707770631891534</v>
+        <v>3.672848038905631</v>
       </c>
       <c r="F8" t="n">
-        <v>1.74012</v>
+        <v>3.1795</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="9">
@@ -576,23 +576,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.061164853590894</v>
+        <v>0.6185023987743629</v>
       </c>
       <c r="E9" t="n">
-        <v>3.689215858993487</v>
+        <v>3.662001846739384</v>
       </c>
       <c r="F9" t="n">
-        <v>1.86612</v>
+        <v>3.3527</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="10">
@@ -600,23 +600,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.096672465688021</v>
+        <v>0.638018318454436</v>
       </c>
       <c r="E10" t="n">
-        <v>3.668793200867766</v>
+        <v>3.642633110237823</v>
       </c>
       <c r="F10" t="n">
-        <v>1.93652</v>
+        <v>3.4535</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="11">
@@ -624,23 +624,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1.116709465578709</v>
+        <v>0.6578425679565504</v>
       </c>
       <c r="E11" t="n">
-        <v>3.675206226899799</v>
+        <v>3.650818488778145</v>
       </c>
       <c r="F11" t="n">
-        <v>1.93652</v>
+        <v>3.4535</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="12">
@@ -648,23 +648,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.123018162709762</v>
+        <v>0.6648155393024699</v>
       </c>
       <c r="E12" t="n">
-        <v>3.676191201968257</v>
+        <v>3.651828017178621</v>
       </c>
       <c r="F12" t="n">
-        <v>1.93652</v>
+        <v>3.4535</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
     <row r="13">
@@ -672,23 +672,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1.125435157590476</v>
+        <v>0.6673271402185389</v>
       </c>
       <c r="E13" t="n">
-        <v>3.677591989185273</v>
+        <v>3.653356167919833</v>
       </c>
       <c r="F13" t="n">
-        <v>1.93652</v>
+        <v>3.4535</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>4.330044453585476</v>
+        <v>4.246647459488038</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area1.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2546468043688802</v>
+        <v>0.2542834639552568</v>
       </c>
       <c r="E2" t="n">
         <v>4.090477886565919</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4110409802702994</v>
+        <v>0.4104359493846112</v>
       </c>
       <c r="E3" t="n">
         <v>3.912426298598175</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5355094759621808</v>
+        <v>0.5350066809586895</v>
       </c>
       <c r="E4" t="n">
         <v>3.754207723738251</v>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.56597042598376</v>
+        <v>0.5654755765727</v>
       </c>
       <c r="E5" t="n">
         <v>3.725360916877521</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5794681151118293</v>
+        <v>0.5790019439973907</v>
       </c>
       <c r="E6" t="n">
         <v>3.706315775055423</v>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5872462595146157</v>
+        <v>0.5867725890088394</v>
       </c>
       <c r="E7" t="n">
         <v>3.69561847722617</v>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6063895716669161</v>
+        <v>0.6059046352159223</v>
       </c>
       <c r="E8" t="n">
         <v>3.672848038905631</v>
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6185023987743629</v>
+        <v>0.6180223105451141</v>
       </c>
       <c r="E9" t="n">
         <v>3.662001846739384</v>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.638018318454436</v>
+        <v>0.6375158036107536</v>
       </c>
       <c r="E10" t="n">
         <v>3.642633110237823</v>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6578425679565504</v>
+        <v>0.6573474479606776</v>
       </c>
       <c r="E11" t="n">
         <v>3.650818488778145</v>
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6648155393024699</v>
+        <v>0.6643126073662314</v>
       </c>
       <c r="E12" t="n">
         <v>3.651828017178621</v>
@@ -678,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6673271402185389</v>
+        <v>0.6668191765547994</v>
       </c>
       <c r="E13" t="n">
         <v>3.653356167919833</v>

--- a/_RESULTS/Error_budget/error_budget_area1.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1.xlsx
@@ -414,13 +414,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2542834639552568</v>
+        <v>0.453798283957173</v>
       </c>
       <c r="E2" t="n">
-        <v>4.090477886565919</v>
+        <v>4.030351714201131</v>
       </c>
       <c r="F2" t="n">
-        <v>1.045</v>
+        <v>0.37755</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4104359493846112</v>
+        <v>0.7013668025542714</v>
       </c>
       <c r="E3" t="n">
-        <v>3.912426298598175</v>
+        <v>3.825153030077484</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6292</v>
+        <v>0.69339</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
@@ -462,13 +462,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5350066809586895</v>
+        <v>0.8409282915021251</v>
       </c>
       <c r="E4" t="n">
-        <v>3.754207723738251</v>
+        <v>3.665542107973322</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0564</v>
+        <v>1.04571</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5654755765727</v>
+        <v>0.9134183275653273</v>
       </c>
       <c r="E5" t="n">
-        <v>3.725360916877521</v>
+        <v>3.625463961433848</v>
       </c>
       <c r="F5" t="n">
-        <v>2.4922</v>
+        <v>1.28381</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
@@ -510,13 +510,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5790019439973907</v>
+        <v>0.948750374058701</v>
       </c>
       <c r="E6" t="n">
-        <v>3.706315775055423</v>
+        <v>3.599761200486618</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7495</v>
+        <v>1.45374</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
@@ -534,13 +534,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5867725890088394</v>
+        <v>0.9780742489844293</v>
       </c>
       <c r="E7" t="n">
-        <v>3.69561847722617</v>
+        <v>3.58148076682167</v>
       </c>
       <c r="F7" t="n">
-        <v>2.9962</v>
+        <v>1.61288</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
@@ -558,13 +558,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6059046352159223</v>
+        <v>1.013676352210849</v>
       </c>
       <c r="E8" t="n">
-        <v>3.672848038905631</v>
+        <v>3.554322504014195</v>
       </c>
       <c r="F8" t="n">
-        <v>3.1795</v>
+        <v>1.73924</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
@@ -582,13 +582,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6180223105451141</v>
+        <v>1.036311721053755</v>
       </c>
       <c r="E9" t="n">
-        <v>3.662001846739384</v>
+        <v>3.54049603413069</v>
       </c>
       <c r="F9" t="n">
-        <v>3.3527</v>
+        <v>1.870315</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
@@ -606,13 +606,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6375158036107536</v>
+        <v>1.072360263574761</v>
       </c>
       <c r="E10" t="n">
-        <v>3.642633110237823</v>
+        <v>3.516267784011177</v>
       </c>
       <c r="F10" t="n">
-        <v>3.4535</v>
+        <v>1.907838</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6573474479606776</v>
+        <v>1.092191907924685</v>
       </c>
       <c r="E11" t="n">
-        <v>3.650818488778145</v>
+        <v>3.524453162551498</v>
       </c>
       <c r="F11" t="n">
-        <v>3.4535</v>
+        <v>1.907838</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
@@ -654,13 +654,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6643126073662314</v>
+        <v>1.099157067330238</v>
       </c>
       <c r="E12" t="n">
-        <v>3.651828017178621</v>
+        <v>3.525462690951975</v>
       </c>
       <c r="F12" t="n">
-        <v>3.4535</v>
+        <v>1.907838</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
@@ -678,13 +678,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6668191765547994</v>
+        <v>1.101663636518806</v>
       </c>
       <c r="E13" t="n">
-        <v>3.653356167919833</v>
+        <v>3.526990841693187</v>
       </c>
       <c r="F13" t="n">
-        <v>3.4535</v>
+        <v>1.907838</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">

--- a/_RESULTS/Error_budget/error_budget_area1.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
         <v>0.7013668025542714</v>
       </c>
       <c r="E3" t="n">
-        <v>3.825153030077484</v>
+        <v>3.825153030077485</v>
       </c>
       <c r="F3" t="n">
         <v>0.69339</v>
@@ -472,222 +472,6 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9134183275653273</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.625463961433848</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.28381</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.948750374058701</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.599761200486618</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.45374</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9780742489844293</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.58148076682167</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.61288</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.013676352210849</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.554322504014195</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.73924</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.036311721053755</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.54049603413069</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.870315</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.072360263574761</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.516267784011177</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.907838</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.092191907924685</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.524453162551498</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.907838</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.099157067330238</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.525462690951975</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.907838</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>4.246647459488038</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>135000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.101663636518806</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.526990841693187</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.907838</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
         <v>4.246647459488038</v>
       </c>
     </row>

--- a/_RESULTS/Error_budget/error_budget_area1.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1.xlsx
@@ -408,23 +408,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.453798283957173</v>
+        <v>0.3624081495619552</v>
       </c>
       <c r="E2" t="n">
-        <v>4.030351714201131</v>
+        <v>2.830591467979062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.37755</v>
+        <v>0.5363</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>4.246647459488038</v>
+        <v>2.995599830918374</v>
       </c>
     </row>
     <row r="3">
@@ -432,23 +432,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7013668025542714</v>
+        <v>0.5998284185563134</v>
       </c>
       <c r="E3" t="n">
-        <v>3.825153030077485</v>
+        <v>2.66221189799045</v>
       </c>
       <c r="F3" t="n">
-        <v>0.69339</v>
+        <v>0.9236</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>4.246647459488038</v>
+        <v>2.995599830918374</v>
       </c>
     </row>
     <row r="4">
@@ -456,23 +456,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8409282915021251</v>
+        <v>0.6677861195779499</v>
       </c>
       <c r="E4" t="n">
-        <v>3.665542107973322</v>
+        <v>2.623477043429551</v>
       </c>
       <c r="F4" t="n">
-        <v>1.04571</v>
+        <v>1.142</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>4.246647459488038</v>
+        <v>2.995599830918374</v>
       </c>
     </row>
   </sheetData>
